--- a/Treinos Corrida.xlsx
+++ b/Treinos Corrida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Desktop\Mauricio\APPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D8D53C-C285-424B-A6A4-E4F515A4612B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011D3BA-DE2E-4487-8E49-5E3D6105984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treinos" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -165,13 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,10 +183,7 @@
     <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="45" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="45" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,8 +193,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,1116 +505,1116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897B99B9-DA90-4974-892F-AA64E6C74D2A}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="str">
+      <c r="A2" s="12" t="str">
         <f>IF(B2="","",PROPER(TEXT(B2,"mmmm/aaaa")))</f>
         <v>Julho/2025</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45844</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="8" t="str">
         <f>IF(B2="","",YEAR(B2)&amp;"-W"&amp;TEXT(_xlfn.ISOWEEKNUM(B2),"00"))</f>
         <v>2025-W27</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="12" t="str">
         <f>IF(B2="","",PROPER(TEXT(B2,"dddd")))</f>
         <v>Domingo</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>12.58</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>6.3865740740740737E-2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <f>F2/E2</f>
         <v>5.0767679444150031E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="12" t="str">
         <f t="shared" ref="A3:A43" si="0">IF(B3="","",PROPER(TEXT(B3,"mmmm/aaaa")))</f>
         <v>Julho/2025</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45846</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C43" si="1">IF(B3="","",YEAR(B3)&amp;"-W"&amp;TEXT(_xlfn.ISOWEEKNUM(B3),"00"))</f>
         <v>2025-W28</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="12" t="str">
         <f t="shared" ref="D3:D43" si="2">IF(B3="","",PROPER(TEXT(B3,"dddd")))</f>
         <v>Terça-Feira</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>5.01</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>2.1724537037037039E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G10" si="3">F3/E3</f>
         <v>4.336234937532343E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="str">
+      <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45849</v>
       </c>
-      <c r="C4" s="10" t="str">
+      <c r="C4" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W28</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.85</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>1.3657407407407408E-2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" si="3"/>
         <v>3.5473785473785473E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="str">
+      <c r="A5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45851</v>
       </c>
-      <c r="C5" s="10" t="str">
+      <c r="C5" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W28</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>14.84</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>7.8506944444444449E-2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="3"/>
         <v>5.2902253668763105E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="str">
+      <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45854</v>
       </c>
-      <c r="C6" s="10" t="str">
+      <c r="C6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W29</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.02</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="3"/>
         <v>4.6719269102990036E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="str">
+      <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45858</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W29</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>15.4</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>8.0266203703703701E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="3"/>
         <v>5.2120911495911497E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="str">
+      <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45861</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W30</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>10.029999999999999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>4.7025462962962963E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="3"/>
         <v>4.6884808537350914E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="str">
+      <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45863</v>
       </c>
-      <c r="C9" s="10" t="str">
+      <c r="C9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W30</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.72</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1.4756944444444444E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="3"/>
         <v>5.425347222222222E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="str">
+      <c r="A10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45865</v>
       </c>
-      <c r="C10" s="10" t="str">
+      <c r="C10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W30</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>17.02</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>8.7488425925925928E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f t="shared" si="3"/>
         <v>5.1403305479392437E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="str">
+      <c r="A11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Julho/2025</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45868</v>
       </c>
-      <c r="C11" s="10" t="str">
+      <c r="C11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W31</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>8.02</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>3.7349537037037035E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f>F11/E11</f>
         <v>4.657049505864967E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="str">
+      <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45870</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W31</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>2.1458333333333333E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" ref="G12:G43" si="4">F12/E12</f>
         <v>5.1213206046141603E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="str">
+      <c r="A13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45872</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W31</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>18.010000000000002</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>9.1342592592592586E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="4"/>
         <v>5.0717708269068613E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="str">
+      <c r="A14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45876</v>
       </c>
-      <c r="C14" s="10" t="str">
+      <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W32</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quinta-Feira</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>8</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>3.4872685185185187E-2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="4"/>
         <v>4.3590856481481484E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="str">
+      <c r="A15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45878</v>
       </c>
-      <c r="C15" s="10" t="str">
+      <c r="C15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W32</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sábado</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>18</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>8.9745370370370364E-2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="4"/>
         <v>4.9858539094650199E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="str">
+      <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45884</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W33</v>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>5.01</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2.0462962962962964E-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="4"/>
         <v>4.084423745102388E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="str">
+      <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45886</v>
       </c>
-      <c r="C17" s="10" t="str">
+      <c r="C17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W33</v>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>19.010000000000002</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>9.4340277777777773E-2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="4"/>
         <v>4.9626658483838907E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="str">
+      <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45889</v>
       </c>
-      <c r="C18" s="10" t="str">
+      <c r="C18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W34</v>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D18" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>3.0590277777777779E-2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="4"/>
         <v>4.3700396825396828E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="str">
+      <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45891</v>
       </c>
-      <c r="C19" s="10" t="str">
+      <c r="C19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W34</v>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D19" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>5.43</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>2.5648148148148149E-2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="4"/>
         <v>4.7234158652206537E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="str">
+      <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45893</v>
       </c>
-      <c r="C20" s="10" t="str">
+      <c r="C20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W34</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>19</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>9.2997685185185183E-2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f t="shared" si="4"/>
         <v>4.8946150097465887E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="str">
+      <c r="A21" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>45896</v>
       </c>
-      <c r="C21" s="10" t="str">
+      <c r="C21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W35</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D21" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>8</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>3.6249999999999998E-2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="4"/>
         <v>4.5312499999999997E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="str">
+      <c r="A22" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Agosto/2025</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>45900</v>
       </c>
-      <c r="C22" s="10" t="str">
+      <c r="C22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W35</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D22" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>20</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>0.10052083333333334</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <f t="shared" si="4"/>
         <v>5.0260416666666665E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>45903</v>
       </c>
-      <c r="C23" s="10" t="str">
+      <c r="C23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W36</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D23" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>5.01</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>1.9664351851851853E-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="4"/>
         <v>3.9250203297109491E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="str">
+      <c r="A24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>45904</v>
       </c>
-      <c r="C24" s="10" t="str">
+      <c r="C24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W36</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quinta-Feira</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>12.01</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>5.6238425925925928E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="4"/>
         <v>4.682633299410985E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="str">
+      <c r="A25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>45907</v>
       </c>
-      <c r="C25" s="10" t="str">
+      <c r="C25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W36</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>19</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>9.8483796296296292E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="4"/>
         <v>5.1833576998050676E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="str">
+      <c r="A26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>45910</v>
       </c>
-      <c r="C26" s="10" t="str">
+      <c r="C26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W37</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>10.01</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>4.3692129629629629E-2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="4"/>
         <v>4.3648481148481147E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="str">
+      <c r="A27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>45914</v>
       </c>
-      <c r="C27" s="10" t="str">
+      <c r="C27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W37</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>10.1</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>4.4409722222222225E-2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="4"/>
         <v>4.3970022002200225E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="str">
+      <c r="A28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Setembro/2025</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>45914</v>
       </c>
-      <c r="C28" s="10" t="str">
+      <c r="C28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W37</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>5</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>3.2824074074074075E-2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" si="4"/>
         <v>6.564814814814815E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="str">
+      <c r="A29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Outubro/2025</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>45931</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W40</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D29" s="12" t="str">
         <f>IF(B29="","",PROPER(TEXT(B29,"dddd")))</f>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8" t="e">
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="str">
+      <c r="A30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Novembro/2025</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>45962</v>
       </c>
-      <c r="C30" s="10" t="str">
+      <c r="C30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W44</v>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D30" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sábado</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8" t="e">
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="str">
+      <c r="A31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Dezembro/2025</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>45992</v>
       </c>
-      <c r="C31" s="10" t="str">
+      <c r="C31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2025-W49</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Segunda-Feira</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8" t="e">
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="str">
+      <c r="A32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Janeiro/2026</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>46023</v>
       </c>
-      <c r="C32" s="10" t="str">
+      <c r="C32" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W01</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D32" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quinta-Feira</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8" t="e">
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Fevereiro/2026</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>46054</v>
       </c>
-      <c r="C33" s="10" t="str">
+      <c r="C33" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W05</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8" t="e">
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="str">
+      <c r="A34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Março/2026</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>46082</v>
       </c>
-      <c r="C34" s="10" t="str">
+      <c r="C34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W09</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Domingo</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8" t="e">
+      <c r="E34" s="4"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="str">
+      <c r="A35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Abril/2026</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>46113</v>
       </c>
-      <c r="C35" s="10" t="str">
+      <c r="C35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W14</v>
       </c>
-      <c r="D35" s="14" t="str">
+      <c r="D35" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quarta-Feira</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8" t="e">
+      <c r="E35" s="4"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="str">
+      <c r="A36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Maio/2026</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>46143</v>
       </c>
-      <c r="C36" s="10" t="str">
+      <c r="C36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W18</v>
       </c>
-      <c r="D36" s="14" t="str">
+      <c r="D36" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Sexta-Feira</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8" t="e">
+      <c r="E36" s="4"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="str">
+      <c r="A37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Junho/2026</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>46174</v>
       </c>
-      <c r="C37" s="10" t="str">
+      <c r="C37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2026-W23</v>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Segunda-Feira</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8" t="e">
+      <c r="E37" s="4"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Julho/2027</v>
-      </c>
-      <c r="B38" s="6">
-        <v>46569</v>
-      </c>
-      <c r="C38" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2027-W26</v>
-      </c>
-      <c r="D38" s="14" t="str">
+      <c r="A38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Julho/2026</v>
+      </c>
+      <c r="B38" s="5">
+        <v>46204</v>
+      </c>
+      <c r="C38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W27</v>
+      </c>
+      <c r="D38" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Quarta-Feira</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Agosto/2026</v>
+      </c>
+      <c r="B39" s="5">
+        <v>46235</v>
+      </c>
+      <c r="C39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W31</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Sábado</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Setembro/2026</v>
+      </c>
+      <c r="B40" s="5">
+        <v>46266</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W36</v>
+      </c>
+      <c r="D40" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Terça-Feira</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Outubro/2026</v>
+      </c>
+      <c r="B41" s="5">
+        <v>46296</v>
+      </c>
+      <c r="C41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W40</v>
+      </c>
+      <c r="D41" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Quinta-Feira</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8" t="e">
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Agosto/2026</v>
-      </c>
-      <c r="B39" s="6">
-        <v>46235</v>
-      </c>
-      <c r="C39" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2026-W31</v>
-      </c>
-      <c r="D39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Sábado</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8" t="e">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Novembro/2026</v>
+      </c>
+      <c r="B42" s="5">
+        <v>46327</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W44</v>
+      </c>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>Domingo</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Setembro/2026</v>
-      </c>
-      <c r="B40" s="6">
-        <v>46266</v>
-      </c>
-      <c r="C40" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2026-W36</v>
-      </c>
-      <c r="D40" s="14" t="str">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Dezembro/2026</v>
+      </c>
+      <c r="B43" s="5">
+        <v>46357</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>2026-W49</v>
+      </c>
+      <c r="D43" s="12" t="str">
         <f t="shared" si="2"/>
         <v>Terça-Feira</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Outubro/2026</v>
-      </c>
-      <c r="B41" s="6">
-        <v>46296</v>
-      </c>
-      <c r="C41" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2026-W40</v>
-      </c>
-      <c r="D41" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Quinta-Feira</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Novembro/2026</v>
-      </c>
-      <c r="B42" s="6">
-        <v>46327</v>
-      </c>
-      <c r="C42" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2026-W44</v>
-      </c>
-      <c r="D42" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Domingo</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Dezembro/2026</v>
-      </c>
-      <c r="B43" s="6">
-        <v>46357</v>
-      </c>
-      <c r="C43" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>2026-W49</v>
-      </c>
-      <c r="D43" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>Terça-Feira</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="8" t="e">
+      <c r="E43" s="4"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1633,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FC38B2-B956-42D0-A3C5-460567B482D2}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,631 +1652,631 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <f>SUM(treinos!E2:E43)</f>
         <v>288.27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str" cm="1">
+      <c r="A3" s="8" t="str" cm="1">
         <f t="array" ref="A3">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A2, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Julho/2025</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <f>IF(A3="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A3))</f>
         <v>95.489999999999981</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <f>IF(A3="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A3))</f>
         <v>0.47276620370370365</v>
       </c>
-      <c r="E3" s="10" t="str" cm="1">
+      <c r="E3" s="8" t="str" cm="1">
         <f t="array" ref="E3">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E2, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W27</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f>IF(E3="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E3))</f>
         <v>12.58</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <f>IF(E3="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E3))</f>
         <v>6.3865740740740737E-2</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <f>SUM(treinos!F2:F43)</f>
         <v>1.4063078703703702</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str" cm="1">
+      <c r="A4" s="8" t="str" cm="1">
         <f t="array" ref="A4">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A3, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Agosto/2025</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <f>IF(A4="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A4))</f>
         <v>131.65</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>IF(A4="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A4))</f>
         <v>0.63822916666666663</v>
       </c>
-      <c r="E4" s="10" t="str" cm="1">
+      <c r="E4" s="8" t="str" cm="1">
         <f t="array" ref="E4">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E3, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W28</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f>IF(E4="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E4))</f>
         <v>23.7</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <f>IF(E4="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E4))</f>
         <v>0.1138888888888889</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str" cm="1">
+      <c r="A5" s="8" t="str" cm="1">
         <f t="array" ref="A5">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A4, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Setembro/2025</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <f>IF(A5="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A5))</f>
         <v>61.129999999999995</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>IF(A5="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A5))</f>
         <v>0.29531249999999998</v>
       </c>
-      <c r="E5" s="10" t="str" cm="1">
+      <c r="E5" s="8" t="str" cm="1">
         <f t="array" ref="E5">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E4, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W29</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f>IF(E5="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E5))</f>
         <v>21.42</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <f>IF(E5="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E5))</f>
         <v>0.1083912037037037</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="str" cm="1">
+      <c r="A6" s="8" t="str" cm="1">
         <f t="array" ref="A6">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A5, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Outubro/2025</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <f>IF(A6="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A6))</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>IF(A6="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A6))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="str" cm="1">
+      <c r="E6" s="8" t="str" cm="1">
         <f t="array" ref="E6">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E5, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W30</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f>IF(E6="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E6))</f>
         <v>29.77</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f>IF(E6="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E6))</f>
         <v>0.14927083333333335</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str" cm="1">
+      <c r="A7" s="8" t="str" cm="1">
         <f t="array" ref="A7">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A6, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Novembro/2025</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <f>IF(A7="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A7))</f>
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f>IF(A7="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A7))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="str" cm="1">
+      <c r="E7" s="8" t="str" cm="1">
         <f t="array" ref="E7">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E6, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W31</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f>IF(E7="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E7))</f>
         <v>30.220000000000002</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <f>IF(E7="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E7))</f>
         <v>0.15015046296296297</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str" cm="1">
+      <c r="A8" s="8" t="str" cm="1">
         <f t="array" ref="A8">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A7, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Dezembro/2025</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <f>IF(A8="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A8))</f>
         <v>0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>IF(A8="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A8))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="str" cm="1">
+      <c r="E8" s="8" t="str" cm="1">
         <f t="array" ref="E8">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E7, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W32</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f>IF(E8="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E8))</f>
         <v>26</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f>IF(E8="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E8))</f>
         <v>0.12461805555555555</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str" cm="1">
+      <c r="A9" s="8" t="str" cm="1">
         <f t="array" ref="A9">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A8, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Janeiro/2026</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f>IF(A9="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A9))</f>
         <v>0</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f>IF(A9="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A9))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="str" cm="1">
+      <c r="E9" s="8" t="str" cm="1">
         <f t="array" ref="E9">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E8, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W33</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f>IF(E9="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E9))</f>
         <v>24.020000000000003</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <f>IF(E9="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E9))</f>
         <v>0.11480324074074073</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str" cm="1">
+      <c r="A10" s="8" t="str" cm="1">
         <f t="array" ref="A10">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A9, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Fevereiro/2026</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f>IF(A10="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A10))</f>
         <v>0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <f>IF(A10="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A10))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="10" t="str" cm="1">
+      <c r="E10" s="8" t="str" cm="1">
         <f t="array" ref="E10">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E9, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W34</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f>IF(E10="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E10))</f>
         <v>31.43</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <f>IF(E10="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E10))</f>
         <v>0.14923611111111112</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str" cm="1">
+      <c r="A11" s="8" t="str" cm="1">
         <f t="array" ref="A11">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A10, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Março/2026</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <f>IF(A11="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A11))</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>IF(A11="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A11))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="10" t="str" cm="1">
+      <c r="E11" s="8" t="str" cm="1">
         <f t="array" ref="E11">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E10, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W35</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f>IF(E11="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E11))</f>
         <v>28</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="11">
         <f>IF(E11="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E11))</f>
         <v>0.13677083333333334</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="str" cm="1">
+      <c r="A12" s="8" t="str" cm="1">
         <f t="array" ref="A12">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A11, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Abril/2026</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <f>IF(A12="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A12))</f>
         <v>0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <f>IF(A12="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A12))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="10" t="str" cm="1">
+      <c r="E12" s="8" t="str" cm="1">
         <f t="array" ref="E12">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E11, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W36</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f>IF(E12="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E12))</f>
         <v>36.019999999999996</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="11">
         <f>IF(E12="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E12))</f>
         <v>0.17438657407407407</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="str" cm="1">
+      <c r="A13" s="8" t="str" cm="1">
         <f t="array" ref="A13">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A12, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Maio/2026</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <f>IF(A13="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A13))</f>
         <v>0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <f>IF(A13="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A13))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="10" t="str" cm="1">
+      <c r="E13" s="8" t="str" cm="1">
         <f t="array" ref="E13">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E12, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W37</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f>IF(E13="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E13))</f>
         <v>25.11</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f>IF(E13="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E13))</f>
         <v>0.12092592592592592</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str" cm="1">
+      <c r="A14" s="8" t="str" cm="1">
         <f t="array" ref="A14">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A13, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Junho/2026</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <f>IF(A14="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A14))</f>
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <f>IF(A14="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A14))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="10" t="str" cm="1">
+      <c r="E14" s="8" t="str" cm="1">
         <f t="array" ref="E14">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E13, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W40</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f>IF(E14="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E14))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="11">
         <f>IF(E14="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E14))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="str" cm="1">
+      <c r="A15" s="8" t="str" cm="1">
         <f t="array" ref="A15">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A14, treinos!$A$2:$A$998), 0)), "")</f>
-        <v>Julho/2027</v>
-      </c>
-      <c r="B15" s="10">
+        <v>Julho/2026</v>
+      </c>
+      <c r="B15" s="8">
         <f>IF(A15="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A15))</f>
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <f>IF(A15="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A15))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="10" t="str" cm="1">
+      <c r="E15" s="8" t="str" cm="1">
         <f t="array" ref="E15">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E14, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W44</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f>IF(E15="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E15))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="11">
         <f>IF(E15="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E15))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="str" cm="1">
+      <c r="A16" s="8" t="str" cm="1">
         <f t="array" ref="A16">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A15, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Agosto/2026</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <f>IF(A16="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A16))</f>
         <v>0</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <f>IF(A16="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A16))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="10" t="str" cm="1">
+      <c r="E16" s="8" t="str" cm="1">
         <f t="array" ref="E16">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E15, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2025-W49</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <f>IF(E16="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E16))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
         <f>IF(E16="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E16))</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="str" cm="1">
+      <c r="A17" s="8" t="str" cm="1">
         <f t="array" ref="A17">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A16, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Setembro/2026</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <f>IF(A17="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A17))</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <f>IF(A17="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A17))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="10" t="str" cm="1">
+      <c r="E17" s="8" t="str" cm="1">
         <f t="array" ref="E17">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E16, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W01</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f>IF(E17="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E17))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f>IF(E17="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E17))</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="str" cm="1">
+      <c r="A18" s="8" t="str" cm="1">
         <f t="array" ref="A18">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A17, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Outubro/2026</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <f>IF(A18="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A18))</f>
         <v>0</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <f>IF(A18="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A18))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="10" t="str" cm="1">
+      <c r="E18" s="8" t="str" cm="1">
         <f t="array" ref="E18">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E17, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W05</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <f>IF(E18="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E18))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f>IF(E18="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E18))</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="str" cm="1">
+      <c r="A19" s="8" t="str" cm="1">
         <f t="array" ref="A19">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A18, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Novembro/2026</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <f>IF(A19="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A19))</f>
         <v>0</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <f>IF(A19="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A19))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="10" t="str" cm="1">
+      <c r="E19" s="8" t="str" cm="1">
         <f t="array" ref="E19">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E18, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W09</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <f>IF(E19="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E19))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <f>IF(E19="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E19))</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="str" cm="1">
+      <c r="A20" s="8" t="str" cm="1">
         <f t="array" ref="A20">IFERROR(INDEX(treinos!$A$2:$A$998, MATCH(0, COUNTIF($A$2:A19, treinos!$A$2:$A$998), 0)), "")</f>
         <v>Dezembro/2026</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <f>IF(A20="","",SUMIFS(treinos!$E:$E, treinos!$A:$A, $A20))</f>
         <v>0</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <f>IF(A20="","",SUMIFS(treinos!$F:$F, treinos!$A:$A, $A20))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="10" t="str" cm="1">
+      <c r="E20" s="8" t="str" cm="1">
         <f t="array" ref="E20">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E19, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W14</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <f>IF(E20="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E20))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="11">
         <f>IF(E20="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E20))</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="10" t="str" cm="1">
+      <c r="E21" s="8" t="str" cm="1">
         <f t="array" ref="E21">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E20, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W18</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <f>IF(E21="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E21))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <f>IF(E21="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E21))</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="10" t="str" cm="1">
+      <c r="E22" s="8" t="str" cm="1">
         <f t="array" ref="E22">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E21, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W23</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f>IF(E22="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E22))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <f>IF(E22="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E22))</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="10" t="str" cm="1">
+      <c r="E23" s="8" t="str" cm="1">
         <f t="array" ref="E23">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E22, treinos!$C$2:$C$998), 0)), "")</f>
-        <v>2027-W26</v>
-      </c>
-      <c r="F23" s="10">
+        <v>2026-W27</v>
+      </c>
+      <c r="F23" s="8">
         <f>IF(E23="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E23))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f>IF(E23="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E23))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="10" t="str" cm="1">
+      <c r="E24" s="8" t="str" cm="1">
         <f t="array" ref="E24">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E23, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W31</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <f>IF(E24="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E24))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <f>IF(E24="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E24))</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="10" t="str" cm="1">
+      <c r="E25" s="8" t="str" cm="1">
         <f t="array" ref="E25">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E24, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W36</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f>IF(E25="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E25))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="11">
         <f>IF(E25="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E25))</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="10" t="str" cm="1">
+      <c r="E26" s="8" t="str" cm="1">
         <f t="array" ref="E26">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E25, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W40</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <f>IF(E26="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E26))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
         <f>IF(E26="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E26))</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="10" t="str" cm="1">
+      <c r="E27" s="8" t="str" cm="1">
         <f t="array" ref="E27">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E26, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W44</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <f>IF(E27="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E27))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <f>IF(E27="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E27))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="10" t="str" cm="1">
+      <c r="E28" s="8" t="str" cm="1">
         <f t="array" ref="E28">IFERROR(INDEX(treinos!$C$2:$C$998, MATCH(0, COUNTIF($E$2:E27, treinos!$C$2:$C$998), 0)), "")</f>
         <v>2026-W49</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <f>IF(E28="","",SUMIFS(treinos!$E:$E, treinos!$C:$C, E28))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="11">
         <f>IF(E28="","",SUMIFS(treinos!$F:$F, treinos!$C:$C, E28))</f>
         <v>0</v>
       </c>
